--- a/storyboard(ppt발표용)/goods_detaillist.xlsx
+++ b/storyboard(ppt발표용)/goods_detaillist.xlsx
@@ -54,6 +54,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>detaillist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.greencar.goods.detaillist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">1. 차량 상세검색 버튼
    -브랜드는 필수선택. 그 외의 버튼은 미선택 가능 
 2. 인자저장 필드
@@ -61,16 +69,9 @@
 3. 검색하기 버튼
    -선택한 버튼의 값을 전송함. 
 4. 검색한 차량 출력 필드
-   -선택한 값에 적합한 차량을 알려줌
+   -선택한 값에 적합한 차량을 알려줌,
+    클릭시 해당 차량의 상세페이지로 이동
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detaillist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.greencar.goods.detaillist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1668,7 +1669,7 @@
   <dimension ref="B1:I46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1704,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>4</v>
@@ -1724,7 +1725,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1741,7 +1742,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
       <c r="F5" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
